--- a/paper/IALPdata.xlsx
+++ b/paper/IALPdata.xlsx
@@ -16,25 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>05 tokens</t>
-  </si>
-  <si>
-    <t>10 tokens</t>
-  </si>
-  <si>
-    <t>20 tokens</t>
-  </si>
-  <si>
-    <t>30 tokens</t>
-  </si>
-  <si>
-    <t>40 tokens</t>
-  </si>
-  <si>
-    <t>50 tokens</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>VNM</t>
   </si>
@@ -132,30 +114,31 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>05 tokens</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 tokens</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 tokens</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30 tokens</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40 tokens</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50 tokens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -204,30 +187,31 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>05 tokens</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 tokens</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 tokens</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30 tokens</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40 tokens</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50 tokens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -276,30 +260,31 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>05 tokens</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 tokens</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 tokens</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30 tokens</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40 tokens</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50 tokens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -340,20 +325,22 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="32316416"/>
-        <c:axId val="32350976"/>
+        <c:axId val="76247808"/>
+        <c:axId val="76249344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32316416"/>
+        <c:axId val="76247808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32350976"/>
+        <c:crossAx val="76249344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -361,18 +348,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32350976"/>
+        <c:axId val="76249344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32316416"/>
+        <c:crossAx val="76247808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -415,9 +403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -729,7 +717,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,18 +729,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2.7410000000000001</v>
@@ -765,8 +753,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>5.0270000000000001</v>
@@ -779,8 +767,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>18.141999999999999</v>
@@ -793,8 +781,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>30</v>
       </c>
       <c r="B5">
         <v>206.34100000000001</v>
@@ -807,8 +795,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6">
+        <v>40</v>
       </c>
       <c r="B6">
         <v>808.93600000000004</v>
@@ -821,8 +809,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7">
+        <v>50</v>
       </c>
       <c r="B7">
         <v>2477.4360000000001</v>
